--- a/Data/NetSuiteTestData_SuppressRates.xlsx
+++ b/Data/NetSuiteTestData_SuppressRates.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="671">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -1997,9 +1997,6 @@
     <t>2814607076</t>
   </si>
   <si>
-    <t>Address/Est/Note Change</t>
-  </si>
-  <si>
     <t>Order Entry Error</t>
   </si>
   <si>
@@ -2009,33 +2006,12 @@
     <t>RevisedEST/IO/CPE</t>
   </si>
   <si>
-    <t>Changing the EST</t>
-  </si>
-  <si>
     <t>NewNote1</t>
   </si>
   <si>
-    <t>TestNote1</t>
-  </si>
-  <si>
     <t>NewNote2</t>
   </si>
   <si>
-    <t>TestNote2</t>
-  </si>
-  <si>
-    <t>TC_NST_2223</t>
-  </si>
-  <si>
-    <t>Split Invoice</t>
-  </si>
-  <si>
-    <t>TC_NST_6700</t>
-  </si>
-  <si>
-    <t>3914610948</t>
-  </si>
-  <si>
     <t>TC_NST_2224</t>
   </si>
   <si>
@@ -2051,55 +2027,13 @@
     <t>SB1 Dev1 - iHeartMedia  -  Administrator</t>
   </si>
   <si>
-    <t>6514608855</t>
-  </si>
-  <si>
-    <t>5 Oweno Place Mahwah, US - 07430</t>
-  </si>
-  <si>
-    <t>TC_NST_2225</t>
-  </si>
-  <si>
-    <t>Issue Credit to Client</t>
-  </si>
-  <si>
     <t>preference</t>
   </si>
   <si>
-    <t>Credit Only</t>
-  </si>
-  <si>
     <t>AdjustmentReasonGeneral</t>
   </si>
   <si>
-    <t>Event Canceled</t>
-  </si>
-  <si>
     <t>linecreditamount</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>SB5 20.1 Upgrade - iHeartmedia - Administrator</t>
-  </si>
-  <si>
-    <t>8214794290</t>
-  </si>
-  <si>
-    <t>Arsin*1234</t>
-  </si>
-  <si>
-    <t>TC_NST_2226</t>
-  </si>
-  <si>
-    <t>6115112625</t>
-  </si>
-  <si>
-    <t>TC_NST_2227</t>
-  </si>
-  <si>
-    <t>3014426945</t>
   </si>
 </sst>
 </file>
@@ -2123,7 +2057,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2147,17 +2081,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -2174,7 +2097,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -2186,13 +2109,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2497,10 +2414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2556,25 +2473,25 @@
         <v>656</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>663</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>684</v>
+        <v>670</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2591,7 +2508,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>649</v>
@@ -2608,258 +2525,52 @@
       <c r="J2" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="L2" s="9"/>
+      <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>648</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>649</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>650</v>
+        <v>667</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>653</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>677</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>662</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>669</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>648</v>
-      </c>
-      <c r="C4" t="s">
-        <v>668</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>674</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>650</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>670</v>
-      </c>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>671</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>672</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>674</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>653</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>673</v>
-      </c>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>678</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>679</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>674</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>653</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="L6" s="9"/>
-      <c r="O6" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="Q6" s="11" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>689</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>679</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>674</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>653</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>690</v>
-      </c>
-      <c r="L7" s="9"/>
-      <c r="O7" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="Q7" s="11" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>691</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>679</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>674</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>653</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>692</v>
-      </c>
-      <c r="L8" s="9"/>
-      <c r="O8" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="Q8" s="11" t="s">
-        <v>685</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="L3" s="7"/>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3 B5:B8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3">
       <formula1>"SB1,SB2,SB3,SB4"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
